--- a/1일차/벅스.xlsx
+++ b/1일차/벅스.xlsx
@@ -328,301 +328,301 @@
     <t>After LIKE</t>
   </si>
   <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>새삥 (Prod. ZICO) (Feat. 호미들)</t>
+  </si>
+  <si>
     <t>Hype Boy</t>
   </si>
   <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>새삥 (Prod. ZICO) (Feat. 호미들)</t>
-  </si>
-  <si>
     <t>Pink Venom</t>
   </si>
   <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>LOVE DIVE</t>
+  </si>
+  <si>
     <t>LAW (Prod. Czaer)</t>
   </si>
   <si>
     <t>FOREVER 1</t>
   </si>
   <si>
-    <t>LOVE DIVE</t>
+    <t>My Dream</t>
+  </si>
+  <si>
+    <t>도깨비불 (Illusion)</t>
+  </si>
+  <si>
+    <t>Talk that Talk</t>
+  </si>
+  <si>
+    <t>Same Scent</t>
+  </si>
+  <si>
+    <t>물과 기름 (Polarity)</t>
+  </si>
+  <si>
+    <t>나의 X에게</t>
+  </si>
+  <si>
+    <t>일과 이분의 일</t>
+  </si>
+  <si>
+    <t>맞아 잠을 설친 건 너 때문이야</t>
   </si>
   <si>
     <t>그때 그 순간 그대로 (그그그)</t>
   </si>
   <si>
-    <t>Same Scent</t>
-  </si>
-  <si>
-    <t>Cookie</t>
+    <t>SNEAKERS</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면</t>
+  </si>
+  <si>
+    <t>Left and Right (Feat. Jung Kook of BTS)</t>
+  </si>
+  <si>
+    <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
+  </si>
+  <si>
+    <t>FEARLESS</t>
+  </si>
+  <si>
+    <t>ELEVEN</t>
+  </si>
+  <si>
+    <t>그라데이션</t>
+  </si>
+  <si>
+    <t>Somebody!</t>
+  </si>
+  <si>
+    <t>봄여름가을겨울 (Still Life)</t>
+  </si>
+  <si>
+    <t>Dangerously</t>
+  </si>
+  <si>
+    <t>혼란하다 혼란해 (Dizzy)</t>
+  </si>
+  <si>
+    <t>I Ain't Worried</t>
+  </si>
+  <si>
+    <t>TOMBOY</t>
+  </si>
+  <si>
+    <t>That's Hilarious</t>
+  </si>
+  <si>
+    <t>정이라고 하자 (Feat. 10CM)</t>
+  </si>
+  <si>
+    <t>보고싶었어</t>
+  </si>
+  <si>
+    <t>POP!</t>
+  </si>
+  <si>
+    <t>술이 뭐길래</t>
+  </si>
+  <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>사랑은 늘 도망가</t>
+  </si>
+  <si>
+    <t>INVU</t>
+  </si>
+  <si>
+    <t>너의 모든 순간</t>
+  </si>
+  <si>
+    <t>Feel My Rhythm</t>
+  </si>
+  <si>
+    <t>눈을 감으면</t>
+  </si>
+  <si>
+    <t>STAY</t>
   </si>
   <si>
     <t>Girls</t>
   </si>
   <si>
-    <t>Talk that Talk</t>
-  </si>
-  <si>
-    <t>ELEVEN</t>
-  </si>
-  <si>
-    <t>도깨비불 (Illusion)</t>
-  </si>
-  <si>
-    <t>Somebody!</t>
-  </si>
-  <si>
-    <t>그라데이션</t>
-  </si>
-  <si>
-    <t>FEARLESS</t>
-  </si>
-  <si>
-    <t>TOMBOY</t>
-  </si>
-  <si>
-    <t>보고싶었어</t>
-  </si>
-  <si>
-    <t>술이 뭐길래</t>
-  </si>
-  <si>
-    <t>I Ain't Worried</t>
-  </si>
-  <si>
-    <t>SNEAKERS</t>
+    <t>사랑인가 봐</t>
+  </si>
+  <si>
+    <t>드라마</t>
+  </si>
+  <si>
+    <t>팡파레</t>
+  </si>
+  <si>
+    <t>I LOVE U</t>
+  </si>
+  <si>
+    <t>열이올라요 (Heart Burn)</t>
+  </si>
+  <si>
+    <t>천만분의 1의 확률의 너 (Gravitation)</t>
+  </si>
+  <si>
+    <t>사랑한다고 말해줘</t>
+  </si>
+  <si>
+    <t>내가 아니라도</t>
+  </si>
+  <si>
+    <t>밤하늘의 별을(2020)</t>
   </si>
   <si>
     <t>STUPID LOVE</t>
   </si>
   <si>
-    <t>That's Hilarious</t>
-  </si>
-  <si>
-    <t>정이라고 하자 (Feat. 10CM)</t>
-  </si>
-  <si>
-    <t>My Dream</t>
+    <t>Next Level</t>
+  </si>
+  <si>
+    <t>스티커 사진</t>
+  </si>
+  <si>
+    <t>Love story</t>
+  </si>
+  <si>
+    <t>Mermaid</t>
+  </si>
+  <si>
+    <t>취중고백</t>
   </si>
   <si>
     <t>LOVE me</t>
   </si>
   <si>
-    <t>혼란하다 혼란해 (Dizzy)</t>
-  </si>
-  <si>
-    <t>Dangerously</t>
-  </si>
-  <si>
-    <t>I LOVE U</t>
+    <t>월광 (FULL MOON)</t>
+  </si>
+  <si>
+    <t>MY BAG</t>
+  </si>
+  <si>
+    <t>That That (prod. &amp; feat. SUGA of BTS)</t>
+  </si>
+  <si>
+    <t>strawberry moon</t>
+  </si>
+  <si>
+    <t>잠수이별 (Prod. 코드 쿤스트)</t>
+  </si>
+  <si>
+    <t>Sweaty (Prod. GRAY)</t>
+  </si>
+  <si>
+    <t>통화연결음</t>
+  </si>
+  <si>
+    <t>상상 (Beyond My Dreams)</t>
+  </si>
+  <si>
+    <t>가솔린 (Gasoline)</t>
+  </si>
+  <si>
+    <t>해요 (2022)</t>
+  </si>
+  <si>
+    <t>SMILEY (Feat. BIBI)</t>
   </si>
   <si>
     <t>100℃ (Prod. 기리보이, YEOHO) (Feat. YUNHWAY)</t>
   </si>
   <si>
-    <t>천만분의 1의 확률의 너 (Gravitation)</t>
-  </si>
-  <si>
-    <t>That That (prod. &amp; feat. SUGA of BTS)</t>
-  </si>
-  <si>
-    <t>Hurt</t>
-  </si>
-  <si>
-    <t>물과 기름 (Polarity)</t>
-  </si>
-  <si>
-    <t>strawberry moon</t>
-  </si>
-  <si>
-    <t>STAY</t>
-  </si>
-  <si>
-    <t>사랑인가 봐</t>
+    <t>신호등</t>
+  </si>
+  <si>
+    <t>Whistle (Prod. GroovyRoom) (Feat. 식케이, 미란이)</t>
   </si>
   <si>
     <t>BEAUTIFUL MONSTER</t>
   </si>
   <si>
-    <t>POP!</t>
-  </si>
-  <si>
-    <t>월광 (FULL MOON)</t>
-  </si>
-  <si>
-    <t>나의 X에게</t>
-  </si>
-  <si>
-    <t>Mermaid</t>
-  </si>
-  <si>
-    <t>스티커 사진</t>
-  </si>
-  <si>
-    <t>SURRENDER</t>
-  </si>
-  <si>
-    <t>열이올라요 (Heart Burn)</t>
-  </si>
-  <si>
-    <t>일과 이분의 일</t>
-  </si>
-  <si>
-    <t>봄여름가을겨울 (Still Life)</t>
-  </si>
-  <si>
-    <t>내가 아니라도</t>
-  </si>
-  <si>
-    <t>Next Level</t>
-  </si>
-  <si>
-    <t>Feel My Rhythm</t>
-  </si>
-  <si>
-    <t>Out of Time</t>
-  </si>
-  <si>
-    <t>통화연결음</t>
-  </si>
-  <si>
-    <t>다정히 내 이름을 부르면</t>
+    <t>Sparkling</t>
+  </si>
+  <si>
+    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
+  </si>
+  <si>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+  </si>
+  <si>
+    <t>My Satisfaction</t>
+  </si>
+  <si>
+    <t>새벽에 걸려온 너의 전화는</t>
+  </si>
+  <si>
+    <t>바보에게 바보가 (웹툰 '연애의 발견' X 이석훈)</t>
+  </si>
+  <si>
+    <t>Celebrity</t>
   </si>
   <si>
     <t>사랑이야</t>
   </si>
   <si>
-    <t>SMILEY (Feat. BIBI)</t>
-  </si>
-  <si>
-    <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
-  </si>
-  <si>
-    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
-  </si>
-  <si>
-    <t>Love story</t>
-  </si>
-  <si>
-    <t>Sweaty (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>Left and Right (Feat. Jung Kook of BTS)</t>
-  </si>
-  <si>
-    <t>너의 모든 순간</t>
+    <t>어른</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>한 페이지가 될 수 있게</t>
+  </si>
+  <si>
+    <t>롤린 (Rollin')</t>
   </si>
   <si>
     <t>Light Switch</t>
   </si>
   <si>
-    <t>상상 (Beyond My Dreams)</t>
-  </si>
-  <si>
-    <t>취중고백</t>
-  </si>
-  <si>
-    <t>사랑한다고 말해줘</t>
-  </si>
-  <si>
-    <t>팡파레</t>
-  </si>
-  <si>
-    <t>드라마</t>
+    <t>GANADARA (Feat. 아이유)</t>
+  </si>
+  <si>
+    <t>봄 to 러브</t>
   </si>
   <si>
     <t>괴짜 (Freak)</t>
   </si>
   <si>
-    <t>INVU</t>
-  </si>
-  <si>
-    <t>이러면 안 될 거 아는데 너 앞에만 서면 나락 (Feat. 10CM)</t>
-  </si>
-  <si>
-    <t>신호등</t>
-  </si>
-  <si>
-    <t>MY BAG</t>
-  </si>
-  <si>
-    <t>보름달 (feat. Lena)</t>
-  </si>
-  <si>
-    <t>Sparkling</t>
-  </si>
-  <si>
-    <t>사랑은 늘 도망가</t>
-  </si>
-  <si>
-    <t>잠수이별 (Prod. 코드 쿤스트)</t>
-  </si>
-  <si>
-    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
-  </si>
-  <si>
-    <t>옆집누나</t>
-  </si>
-  <si>
-    <t>I Believe (엽기적인 그녀 O.S.T)</t>
-  </si>
-  <si>
-    <t>맞아 잠을 설친 건 너 때문이야</t>
-  </si>
-  <si>
-    <t>Whistle (Prod. GroovyRoom) (Feat. 식케이, 미란이)</t>
-  </si>
-  <si>
     <t>Off My Face</t>
   </si>
   <si>
-    <t>사랑의 시작은 고백에서부터 (Romance) (웹툰 '연애의 발견' X 전상근)</t>
-  </si>
-  <si>
-    <t>My Satisfaction</t>
-  </si>
-  <si>
-    <t>Celebrity</t>
-  </si>
-  <si>
-    <t>해요 (2022)</t>
-  </si>
-  <si>
-    <t>밤하늘의 별을(2020)</t>
-  </si>
-  <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>바보에게 바보가 (웹툰 '연애의 발견' X 이석훈)</t>
-  </si>
-  <si>
-    <t>ROYAL</t>
-  </si>
-  <si>
-    <t>나와</t>
-  </si>
-  <si>
-    <t>위로</t>
-  </si>
-  <si>
-    <t>새벽에 걸려온 너의 전화는</t>
-  </si>
-  <si>
-    <t>듣고 싶을까</t>
-  </si>
-  <si>
-    <t>우리가 헤어져야 했던 이유</t>
-  </si>
-  <si>
-    <t>Step Back</t>
-  </si>
-  <si>
-    <t>가솔린 (Gasoline)</t>
-  </si>
-  <si>
     <t>Stay This Way</t>
+  </si>
+  <si>
+    <t>Easy On Me</t>
+  </si>
+  <si>
+    <t>Monologue</t>
+  </si>
+  <si>
+    <t>우리의 꿈</t>
+  </si>
+  <si>
+    <t>Always Remember Us This Way</t>
+  </si>
+  <si>
+    <t>가시</t>
+  </si>
+  <si>
+    <t>At The End</t>
   </si>
   <si>
     <t>IVE (아이브)</t>
@@ -645,16 +645,50 @@
     <t>소녀시대 (GIRLS' GENERATION)</t>
   </si>
   <si>
+    <t>멜로망스(MeloMance)</t>
+  </si>
+  <si>
+    <t>aespa</t>
+  </si>
+  <si>
+    <t>TWICE (트와이스)</t>
+  </si>
+  <si>
+    <t>원어스 (ONEUS)</t>
+  </si>
+  <si>
+    <t>경서</t>
+  </si>
+  <si>
+    <t>츄 (이달의 소녀)</t>
+  </si>
+  <si>
+    <t>펀치 (Punch)</t>
+  </si>
+  <si>
     <t>WSG워너비 (가야G)</t>
   </si>
   <si>
-    <t>원어스 (ONEUS)</t>
-  </si>
-  <si>
-    <t>aespa</t>
-  </si>
-  <si>
-    <t>TWICE (트와이스)</t>
+    <t>ITZY (있지)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+경서예지_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Charlie Puth(찰리 푸스)_x000D_
+</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>LE SSERAFIM (르세라핌)</t>
+  </si>
+  <si>
+    <t>10CM</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -662,16 +696,25 @@
 </t>
   </si>
   <si>
-    <t>10CM</t>
-  </si>
-  <si>
-    <t>LE SSERAFIM (르세라핌)</t>
+    <t>BIGBANG (빅뱅)</t>
+  </si>
+  <si>
+    <t>Charlie Puth(찰리 푸스)</t>
+  </si>
+  <si>
+    <t>OneRepublic(원리퍼블릭)</t>
   </si>
   <si>
     <t>(여자)아이들</t>
   </si>
   <si>
+    <t>BIG Naughty (서동현)</t>
+  </si>
+  <si>
     <t>WSG워너비 (4FIRE)</t>
+  </si>
+  <si>
+    <t>나연 (TWICE)</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -679,34 +722,19 @@
 </t>
   </si>
   <si>
-    <t>OneRepublic(원리퍼블릭)</t>
-  </si>
-  <si>
-    <t>ITZY (있지)</t>
-  </si>
-  <si>
-    <t>Charlie Puth(찰리 푸스)</t>
-  </si>
-  <si>
-    <t>BIG Naughty (서동현)</t>
-  </si>
-  <si>
-    <t>멜로망스(MeloMance)</t>
-  </si>
-  <si>
-    <t>BE'O (비오)</t>
-  </si>
-  <si>
-    <t>WINNER</t>
-  </si>
-  <si>
-    <t>기리보이</t>
-  </si>
-  <si>
-    <t>싸이 (PSY)</t>
-  </si>
-  <si>
-    <t>아이유(IU)</t>
+    <t>임영웅</t>
+  </si>
+  <si>
+    <t>태연 (TAEYEON)</t>
+  </si>
+  <si>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>Red Velvet (레드벨벳)</t>
+  </si>
+  <si>
+    <t>WSG워너비</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -714,37 +742,47 @@
 </t>
   </si>
   <si>
-    <t>STAYC(스테이씨)</t>
-  </si>
-  <si>
-    <t>나연 (TWICE)</t>
-  </si>
-  <si>
-    <t>경서</t>
+    <t>아이유(IU)</t>
+  </si>
+  <si>
+    <t>다비치</t>
+  </si>
+  <si>
+    <t>WINNER</t>
+  </si>
+  <si>
+    <t>선미</t>
+  </si>
+  <si>
+    <t>탑현</t>
+  </si>
+  <si>
+    <t>주호</t>
   </si>
   <si>
     <t>21학번</t>
   </si>
   <si>
-    <t>이창섭</t>
-  </si>
-  <si>
-    <t>선미</t>
-  </si>
-  <si>
-    <t>츄 (이달의 소녀)</t>
-  </si>
-  <si>
-    <t>BIGBANG (빅뱅)</t>
-  </si>
-  <si>
-    <t>주호</t>
-  </si>
-  <si>
-    <t>Red Velvet (레드벨벳)</t>
-  </si>
-  <si>
-    <t>The Weeknd(위켄드)</t>
+    <t>볼빨간사춘기</t>
+  </si>
+  <si>
+    <t>김민석 (멜로망스)</t>
+  </si>
+  <si>
+    <t>BE'O (비오)</t>
+  </si>
+  <si>
+    <t>싸이 (PSY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+우원재_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+GRAY (그레이)_x000D_
+</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -752,117 +790,79 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-경서예지_x000D_
-</t>
+    <t>선우정아(Sunwoojunga)</t>
+  </si>
+  <si>
+    <t>키 (KEY)</t>
+  </si>
+  <si>
+    <t>#안녕</t>
+  </si>
+  <si>
+    <t>YENA (최예나)</t>
+  </si>
+  <si>
+    <t>기리보이</t>
+  </si>
+  <si>
+    <t>이무진</t>
+  </si>
+  <si>
+    <t>그루비룸 (GroovyRoom)</t>
+  </si>
+  <si>
+    <t>STAYC(스테이씨)</t>
+  </si>
+  <si>
+    <t>청하</t>
   </si>
   <si>
     <t>케이시</t>
   </si>
   <si>
-    <t>YENA (최예나)</t>
-  </si>
-  <si>
-    <t>김승민</t>
-  </si>
-  <si>
-    <t>볼빨간사춘기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-GRAY (그레이)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-Charlie Puth(찰리 푸스)_x000D_
-</t>
-  </si>
-  <si>
-    <t>성시경</t>
-  </si>
-  <si>
-    <t>선우정아(Sunwoojunga)</t>
-  </si>
-  <si>
-    <t>김민석 (멜로망스)</t>
-  </si>
-  <si>
-    <t>탑현</t>
-  </si>
-  <si>
-    <t>다비치</t>
-  </si>
-  <si>
-    <t>태연 (TAEYEON)</t>
-  </si>
-  <si>
-    <t>딘딘 (DINDIN)</t>
-  </si>
-  <si>
-    <t>이무진</t>
-  </si>
-  <si>
-    <t>청하</t>
-  </si>
-  <si>
-    <t>임영웅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-우원재_x000D_
-</t>
+    <t>Ed Sheeran(에드 시런)</t>
   </si>
   <si>
     <t>폴킴(Paul Kim)</t>
   </si>
   <si>
-    <t>장윤정</t>
-  </si>
-  <si>
-    <t>신승훈</t>
-  </si>
-  <si>
-    <t>펀치 (Punch)</t>
-  </si>
-  <si>
-    <t>그루비룸 (GroovyRoom)</t>
+    <t>한동근</t>
+  </si>
+  <si>
+    <t>이석훈</t>
+  </si>
+  <si>
+    <t>Sondia</t>
+  </si>
+  <si>
+    <t>DAY6 (데이식스)</t>
+  </si>
+  <si>
+    <t>브레이브걸스(Brave Girls)</t>
+  </si>
+  <si>
+    <t>박재범</t>
   </si>
   <si>
     <t>Justin Bieber(저스틴 비버)</t>
   </si>
   <si>
-    <t>전상근</t>
-  </si>
-  <si>
-    <t>#안녕</t>
-  </si>
-  <si>
-    <t>이석훈</t>
-  </si>
-  <si>
-    <t>류수정</t>
-  </si>
-  <si>
-    <t>임재범</t>
-  </si>
-  <si>
-    <t>한동근</t>
-  </si>
-  <si>
-    <t>MSG워너비(M.O.M)</t>
-  </si>
-  <si>
-    <t>비비(BIBI)</t>
-  </si>
-  <si>
-    <t>GOT the beat</t>
-  </si>
-  <si>
-    <t>키 (KEY)</t>
-  </si>
-  <si>
     <t>프로미스나인</t>
+  </si>
+  <si>
+    <t>Adele(아델)</t>
+  </si>
+  <si>
+    <t>버즈</t>
+  </si>
+  <si>
+    <t>코요태</t>
+  </si>
+  <si>
+    <t>Lady GaGa(레이디 가가)</t>
+  </si>
+  <si>
+    <t>이창섭</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
         <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1290,7 +1290,7 @@
         <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1318,7 +1318,7 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1332,7 +1332,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1360,7 +1360,7 @@
         <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1374,7 +1374,7 @@
         <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1388,7 +1388,7 @@
         <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1430,7 +1430,7 @@
         <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1444,7 +1444,7 @@
         <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1472,7 +1472,7 @@
         <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1500,7 +1500,7 @@
         <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1528,7 +1528,7 @@
         <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1542,7 +1542,7 @@
         <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1556,7 +1556,7 @@
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1570,7 +1570,7 @@
         <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1584,7 +1584,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1598,7 +1598,7 @@
         <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1612,7 +1612,7 @@
         <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1626,7 +1626,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1640,7 +1640,7 @@
         <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1654,7 +1654,7 @@
         <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1668,7 +1668,7 @@
         <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1682,7 +1682,7 @@
         <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1696,7 +1696,7 @@
         <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1710,7 +1710,7 @@
         <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1724,7 +1724,7 @@
         <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1738,7 +1738,7 @@
         <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1752,7 +1752,7 @@
         <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1766,7 +1766,7 @@
         <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1780,7 +1780,7 @@
         <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1794,7 +1794,7 @@
         <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1808,7 +1808,7 @@
         <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1822,7 +1822,7 @@
         <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1836,7 +1836,7 @@
         <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1864,7 +1864,7 @@
         <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1878,7 +1878,7 @@
         <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1892,7 +1892,7 @@
         <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1920,7 +1920,7 @@
         <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1934,7 +1934,7 @@
         <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1948,7 +1948,7 @@
         <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1962,7 +1962,7 @@
         <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1976,7 +1976,7 @@
         <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1990,7 +1990,7 @@
         <v>156</v>
       </c>
       <c r="D55" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2004,7 +2004,7 @@
         <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2018,7 +2018,7 @@
         <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2032,7 +2032,7 @@
         <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2046,7 +2046,7 @@
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2060,7 +2060,7 @@
         <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2074,7 +2074,7 @@
         <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2088,7 +2088,7 @@
         <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2102,7 +2102,7 @@
         <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2116,7 +2116,7 @@
         <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2130,7 +2130,7 @@
         <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2144,7 +2144,7 @@
         <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2158,7 +2158,7 @@
         <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2172,7 +2172,7 @@
         <v>169</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2186,7 +2186,7 @@
         <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2200,7 +2200,7 @@
         <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2214,7 +2214,7 @@
         <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2228,7 +2228,7 @@
         <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2242,7 +2242,7 @@
         <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2256,7 +2256,7 @@
         <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2270,7 +2270,7 @@
         <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2284,7 +2284,7 @@
         <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2298,7 +2298,7 @@
         <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2312,7 +2312,7 @@
         <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2326,7 +2326,7 @@
         <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2340,7 +2340,7 @@
         <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2354,7 +2354,7 @@
         <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2368,7 +2368,7 @@
         <v>183</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2382,7 +2382,7 @@
         <v>184</v>
       </c>
       <c r="D83" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2396,7 +2396,7 @@
         <v>185</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2410,7 +2410,7 @@
         <v>186</v>
       </c>
       <c r="D85" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2438,7 +2438,7 @@
         <v>188</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2452,7 +2452,7 @@
         <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2466,7 +2466,7 @@
         <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2480,7 +2480,7 @@
         <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2494,7 +2494,7 @@
         <v>192</v>
       </c>
       <c r="D91" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2508,7 +2508,7 @@
         <v>193</v>
       </c>
       <c r="D92" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2522,7 +2522,7 @@
         <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2550,7 +2550,7 @@
         <v>196</v>
       </c>
       <c r="D95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2564,7 +2564,7 @@
         <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2578,7 +2578,7 @@
         <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2592,7 +2592,7 @@
         <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2606,7 +2606,7 @@
         <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2620,7 +2620,7 @@
         <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:4">

--- a/1일차/벅스.xlsx
+++ b/1일차/벅스.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="271">
   <si>
     <t>순위</t>
   </si>
@@ -325,304 +325,310 @@
     <t>100</t>
   </si>
   <si>
+    <t>Shut Down</t>
+  </si>
+  <si>
+    <t>새삥 (Prod. ZICO) (Feat. 호미들)</t>
+  </si>
+  <si>
     <t>After LIKE</t>
   </si>
   <si>
+    <t>Hype Boy</t>
+  </si>
+  <si>
     <t>Attention</t>
   </si>
   <si>
-    <t>새삥 (Prod. ZICO) (Feat. 호미들)</t>
-  </si>
-  <si>
-    <t>Hype Boy</t>
+    <t>I Don’t Think That I Like Her</t>
   </si>
   <si>
     <t>Pink Venom</t>
   </si>
   <si>
+    <t>FOREVER 1</t>
+  </si>
+  <si>
+    <t>LOVE DIVE</t>
+  </si>
+  <si>
+    <t>LAW (Prod. Czaer)</t>
+  </si>
+  <si>
     <t>Cookie</t>
   </si>
   <si>
-    <t>LOVE DIVE</t>
-  </si>
-  <si>
-    <t>LAW (Prod. Czaer)</t>
-  </si>
-  <si>
-    <t>FOREVER 1</t>
-  </si>
-  <si>
-    <t>My Dream</t>
+    <t>Talk that Talk</t>
+  </si>
+  <si>
+    <t>Monologue</t>
+  </si>
+  <si>
+    <t>DICE</t>
+  </si>
+  <si>
+    <t>기념일</t>
+  </si>
+  <si>
+    <t>그라데이션</t>
+  </si>
+  <si>
+    <t>ELEVEN</t>
+  </si>
+  <si>
+    <t>Ready For Love</t>
+  </si>
+  <si>
+    <t>Yeah Yeah Yeah</t>
+  </si>
+  <si>
+    <t>FEARLESS</t>
+  </si>
+  <si>
+    <t>질주 (2 Baddies)</t>
   </si>
   <si>
     <t>도깨비불 (Illusion)</t>
   </si>
   <si>
-    <t>Talk that Talk</t>
-  </si>
-  <si>
-    <t>Same Scent</t>
-  </si>
-  <si>
-    <t>물과 기름 (Polarity)</t>
+    <t>That's Hilarious</t>
+  </si>
+  <si>
+    <t>SNEAKERS</t>
+  </si>
+  <si>
+    <t>Dangerously</t>
+  </si>
+  <si>
+    <t>내가 아니라도</t>
+  </si>
+  <si>
+    <t>백야</t>
+  </si>
+  <si>
+    <t>I Ain't Worried</t>
+  </si>
+  <si>
+    <t>TOMBOY</t>
+  </si>
+  <si>
+    <t>그때 그 순간 그대로 (그그그)</t>
+  </si>
+  <si>
+    <t>Hard to Love</t>
+  </si>
+  <si>
+    <t>통화연결음</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
+  </si>
+  <si>
+    <t>strawberry moon</t>
+  </si>
+  <si>
+    <t>정이라고 하자 (Feat. 10CM)</t>
+  </si>
+  <si>
+    <t>보고싶었어</t>
+  </si>
+  <si>
+    <t>잡고 싶다</t>
+  </si>
+  <si>
+    <t>너의 모든 순간</t>
+  </si>
+  <si>
+    <t>TTFU</t>
+  </si>
+  <si>
+    <t>The Happiest Girl</t>
   </si>
   <si>
     <t>나의 X에게</t>
   </si>
   <si>
+    <t>COOL (Your rainbow)</t>
+  </si>
+  <si>
+    <t>사랑인가 봐</t>
+  </si>
+  <si>
+    <t>Typa Girl</t>
+  </si>
+  <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>POP!</t>
+  </si>
+  <si>
+    <t>Left and Right (Feat. Jung Kook of BTS)</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>Better (Feat. BIG Naughty)</t>
+  </si>
+  <si>
+    <t>드라마</t>
+  </si>
+  <si>
+    <t>사랑한다고 말해줘</t>
+  </si>
+  <si>
+    <t>새벽에 걸려온 너의 전화는</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>MY BAG</t>
+  </si>
+  <si>
+    <t>That That (prod. &amp; feat. SUGA of BTS)</t>
+  </si>
+  <si>
+    <t>거기서 거기</t>
+  </si>
+  <si>
+    <t>LOVE me</t>
+  </si>
+  <si>
+    <t>열이올라요 (Heart Burn)</t>
+  </si>
+  <si>
+    <t>Somebody!</t>
+  </si>
+  <si>
+    <t>사랑은 늘 도망가</t>
+  </si>
+  <si>
+    <t>Feel My Rhythm</t>
+  </si>
+  <si>
+    <t>SMILEY (Feat. BIBI)</t>
+  </si>
+  <si>
+    <t>Love story</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면</t>
+  </si>
+  <si>
+    <t>취중고백</t>
+  </si>
+  <si>
+    <t>INVU</t>
+  </si>
+  <si>
+    <t>봄여름가을겨울 (Still Life)</t>
+  </si>
+  <si>
+    <t>Braindead</t>
+  </si>
+  <si>
+    <t>해요 (2022)</t>
+  </si>
+  <si>
+    <t>Smells Like Me</t>
+  </si>
+  <si>
+    <t>Next Level</t>
+  </si>
+  <si>
+    <t>Celebrity</t>
+  </si>
+  <si>
+    <t>그랬으면 좋겠네</t>
+  </si>
+  <si>
+    <t>I LOVE U</t>
+  </si>
+  <si>
+    <t>Off My Face</t>
+  </si>
+  <si>
+    <t>잠수이별 (Prod. 코드 쿤스트)</t>
+  </si>
+  <si>
+    <t>불시착 (Crash Landing)</t>
+  </si>
+  <si>
     <t>일과 이분의 일</t>
   </si>
   <si>
-    <t>맞아 잠을 설친 건 너 때문이야</t>
-  </si>
-  <si>
-    <t>그때 그 순간 그대로 (그그그)</t>
-  </si>
-  <si>
-    <t>SNEAKERS</t>
-  </si>
-  <si>
-    <t>다정히 내 이름을 부르면</t>
-  </si>
-  <si>
-    <t>Left and Right (Feat. Jung Kook of BTS)</t>
-  </si>
-  <si>
-    <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
-  </si>
-  <si>
-    <t>FEARLESS</t>
-  </si>
-  <si>
-    <t>ELEVEN</t>
-  </si>
-  <si>
-    <t>그라데이션</t>
-  </si>
-  <si>
-    <t>Somebody!</t>
-  </si>
-  <si>
-    <t>봄여름가을겨울 (Still Life)</t>
-  </si>
-  <si>
-    <t>Dangerously</t>
-  </si>
-  <si>
-    <t>혼란하다 혼란해 (Dizzy)</t>
-  </si>
-  <si>
-    <t>I Ain't Worried</t>
-  </si>
-  <si>
-    <t>TOMBOY</t>
-  </si>
-  <si>
-    <t>That's Hilarious</t>
-  </si>
-  <si>
-    <t>정이라고 하자 (Feat. 10CM)</t>
-  </si>
-  <si>
-    <t>보고싶었어</t>
-  </si>
-  <si>
-    <t>POP!</t>
-  </si>
-  <si>
-    <t>술이 뭐길래</t>
-  </si>
-  <si>
-    <t>Hurt</t>
-  </si>
-  <si>
-    <t>사랑은 늘 도망가</t>
-  </si>
-  <si>
-    <t>INVU</t>
-  </si>
-  <si>
-    <t>너의 모든 순간</t>
-  </si>
-  <si>
-    <t>Feel My Rhythm</t>
-  </si>
-  <si>
-    <t>눈을 감으면</t>
-  </si>
-  <si>
-    <t>STAY</t>
-  </si>
-  <si>
-    <t>Girls</t>
-  </si>
-  <si>
-    <t>사랑인가 봐</t>
-  </si>
-  <si>
-    <t>드라마</t>
+    <t>한 밤의 꿈처럼</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>스티커 사진</t>
+  </si>
+  <si>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
   </si>
   <si>
     <t>팡파레</t>
   </si>
   <si>
-    <t>I LOVE U</t>
-  </si>
-  <si>
-    <t>열이올라요 (Heart Burn)</t>
-  </si>
-  <si>
-    <t>천만분의 1의 확률의 너 (Gravitation)</t>
-  </si>
-  <si>
-    <t>사랑한다고 말해줘</t>
-  </si>
-  <si>
-    <t>내가 아니라도</t>
-  </si>
-  <si>
-    <t>밤하늘의 별을(2020)</t>
-  </si>
-  <si>
-    <t>STUPID LOVE</t>
-  </si>
-  <si>
-    <t>Next Level</t>
-  </si>
-  <si>
-    <t>스티커 사진</t>
-  </si>
-  <si>
-    <t>Love story</t>
-  </si>
-  <si>
-    <t>Mermaid</t>
-  </si>
-  <si>
-    <t>취중고백</t>
-  </si>
-  <si>
-    <t>LOVE me</t>
-  </si>
-  <si>
-    <t>월광 (FULL MOON)</t>
-  </si>
-  <si>
-    <t>MY BAG</t>
-  </si>
-  <si>
-    <t>That That (prod. &amp; feat. SUGA of BTS)</t>
-  </si>
-  <si>
-    <t>strawberry moon</t>
-  </si>
-  <si>
-    <t>잠수이별 (Prod. 코드 쿤스트)</t>
-  </si>
-  <si>
-    <t>Sweaty (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>통화연결음</t>
-  </si>
-  <si>
-    <t>상상 (Beyond My Dreams)</t>
-  </si>
-  <si>
-    <t>가솔린 (Gasoline)</t>
-  </si>
-  <si>
-    <t>해요 (2022)</t>
-  </si>
-  <si>
-    <t>SMILEY (Feat. BIBI)</t>
-  </si>
-  <si>
-    <t>100℃ (Prod. 기리보이, YEOHO) (Feat. YUNHWAY)</t>
+    <t>Tally</t>
   </si>
   <si>
     <t>신호등</t>
   </si>
   <si>
-    <t>Whistle (Prod. GroovyRoom) (Feat. 식케이, 미란이)</t>
-  </si>
-  <si>
-    <t>BEAUTIFUL MONSTER</t>
+    <t>RUN2U</t>
+  </si>
+  <si>
+    <t>에잇(Prod.&amp;Feat. SUGA of BTS)</t>
+  </si>
+  <si>
+    <t>에필로그</t>
+  </si>
+  <si>
+    <t>Vitamin</t>
   </si>
   <si>
     <t>Sparkling</t>
   </si>
   <si>
-    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
-  </si>
-  <si>
-    <t>Bad Habits</t>
-  </si>
-  <si>
     <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
   </si>
   <si>
-    <t>My Satisfaction</t>
-  </si>
-  <si>
-    <t>새벽에 걸려온 너의 전화는</t>
-  </si>
-  <si>
-    <t>바보에게 바보가 (웹툰 '연애의 발견' X 이석훈)</t>
-  </si>
-  <si>
-    <t>Celebrity</t>
-  </si>
-  <si>
-    <t>사랑이야</t>
-  </si>
-  <si>
-    <t>어른</t>
-  </si>
-  <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>한 페이지가 될 수 있게</t>
-  </si>
-  <si>
-    <t>롤린 (Rollin')</t>
+    <t>Blue Flame</t>
   </si>
   <si>
     <t>Light Switch</t>
   </si>
   <si>
-    <t>GANADARA (Feat. 아이유)</t>
-  </si>
-  <si>
-    <t>봄 to 러브</t>
+    <t>go UP</t>
   </si>
   <si>
     <t>괴짜 (Freak)</t>
   </si>
   <si>
-    <t>Off My Face</t>
-  </si>
-  <si>
-    <t>Stay This Way</t>
-  </si>
-  <si>
-    <t>Easy On Me</t>
-  </si>
-  <si>
-    <t>Monologue</t>
-  </si>
-  <si>
-    <t>우리의 꿈</t>
-  </si>
-  <si>
-    <t>Always Remember Us This Way</t>
-  </si>
-  <si>
-    <t>가시</t>
-  </si>
-  <si>
-    <t>At The End</t>
+    <t>Good Night (Feat. BE'O)</t>
+  </si>
+  <si>
+    <t>스토커</t>
+  </si>
+  <si>
+    <t>윤슬 (Gold Dust)</t>
+  </si>
+  <si>
+    <t>BLACKPINK</t>
+  </si>
+  <si>
+    <t>지코</t>
   </si>
   <si>
     <t>IVE (아이브)</t>
@@ -631,10 +637,10 @@
     <t>NewJeans</t>
   </si>
   <si>
-    <t>지코</t>
-  </si>
-  <si>
-    <t>BLACKPINK</t>
+    <t>Charlie Puth(찰리 푸스)</t>
+  </si>
+  <si>
+    <t>소녀시대 (GIRLS' GENERATION)</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -642,34 +648,131 @@
 </t>
   </si>
   <si>
-    <t>소녀시대 (GIRLS' GENERATION)</t>
+    <t>TWICE (트와이스)</t>
+  </si>
+  <si>
+    <t>테이(Tei)</t>
+  </si>
+  <si>
+    <t>NMIXX</t>
+  </si>
+  <si>
+    <t>벤</t>
+  </si>
+  <si>
+    <t>10CM</t>
+  </si>
+  <si>
+    <t>LE SSERAFIM (르세라핌)</t>
+  </si>
+  <si>
+    <t>NCT 127</t>
+  </si>
+  <si>
+    <t>aespa</t>
+  </si>
+  <si>
+    <t>ITZY (있지)</t>
+  </si>
+  <si>
+    <t>주호</t>
+  </si>
+  <si>
+    <t>린(LYn)</t>
+  </si>
+  <si>
+    <t>OneRepublic(원리퍼블릭)</t>
+  </si>
+  <si>
+    <t>(여자)아이들</t>
+  </si>
+  <si>
+    <t>WSG워너비 (가야G)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+보라미유_x000D_
+</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>아이유(IU)</t>
+  </si>
+  <si>
+    <t>BIG Naughty (서동현)</t>
+  </si>
+  <si>
+    <t>WSG워너비 (4FIRE)</t>
+  </si>
+  <si>
+    <t>나윤권</t>
+  </si>
+  <si>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+사이먼 도미닉_x000D_
+</t>
+  </si>
+  <si>
+    <t>경서</t>
   </si>
   <si>
     <t>멜로망스(MeloMance)</t>
   </si>
   <si>
-    <t>aespa</t>
-  </si>
-  <si>
-    <t>TWICE (트와이스)</t>
-  </si>
-  <si>
-    <t>원어스 (ONEUS)</t>
-  </si>
-  <si>
-    <t>경서</t>
-  </si>
-  <si>
-    <t>츄 (이달의 소녀)</t>
-  </si>
-  <si>
-    <t>펀치 (Punch)</t>
-  </si>
-  <si>
-    <t>WSG워너비 (가야G)</t>
-  </si>
-  <si>
-    <t>ITZY (있지)</t>
+    <t>나연 (TWICE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Charlie Puth(찰리 푸스)_x000D_
+</t>
+  </si>
+  <si>
+    <t>마마무+</t>
+  </si>
+  <si>
+    <t>탑현</t>
+  </si>
+  <si>
+    <t>한동근</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+The Kid LAROI_x000D_
+</t>
+  </si>
+  <si>
+    <t>싸이 (PSY)</t>
+  </si>
+  <si>
+    <t>솔지</t>
+  </si>
+  <si>
+    <t>BE'O (비오)</t>
+  </si>
+  <si>
+    <t>선미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+로꼬_x000D_
+</t>
+  </si>
+  <si>
+    <t>임영웅</t>
+  </si>
+  <si>
+    <t>Red Velvet (레드벨벳)</t>
+  </si>
+  <si>
+    <t>YENA (최예나)</t>
+  </si>
+  <si>
+    <t>볼빨간사춘기</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -677,102 +780,28 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-Charlie Puth(찰리 푸스)_x000D_
-</t>
-  </si>
-  <si>
-    <t>김승민</t>
-  </si>
-  <si>
-    <t>LE SSERAFIM (르세라핌)</t>
-  </si>
-  <si>
-    <t>10CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-로꼬_x000D_
-</t>
+    <t>김민석 (멜로망스)</t>
+  </si>
+  <si>
+    <t>태연 (TAEYEON)</t>
   </si>
   <si>
     <t>BIGBANG (빅뱅)</t>
   </si>
   <si>
-    <t>Charlie Puth(찰리 푸스)</t>
-  </si>
-  <si>
-    <t>OneRepublic(원리퍼블릭)</t>
-  </si>
-  <si>
-    <t>(여자)아이들</t>
-  </si>
-  <si>
-    <t>BIG Naughty (서동현)</t>
-  </si>
-  <si>
-    <t>WSG워너비 (4FIRE)</t>
-  </si>
-  <si>
-    <t>나연 (TWICE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-지아(Zia)_x000D_
-</t>
-  </si>
-  <si>
-    <t>임영웅</t>
-  </si>
-  <si>
-    <t>태연 (TAEYEON)</t>
-  </si>
-  <si>
-    <t>성시경</t>
-  </si>
-  <si>
-    <t>Red Velvet (레드벨벳)</t>
-  </si>
-  <si>
-    <t>WSG워너비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-The Kid LAROI_x000D_
-</t>
-  </si>
-  <si>
-    <t>아이유(IU)</t>
-  </si>
-  <si>
-    <t>다비치</t>
+    <t>시온</t>
+  </si>
+  <si>
+    <t>#안녕</t>
+  </si>
+  <si>
+    <t>에일리(Ailee)</t>
   </si>
   <si>
     <t>WINNER</t>
   </si>
   <si>
-    <t>선미</t>
-  </si>
-  <si>
-    <t>탑현</t>
-  </si>
-  <si>
-    <t>주호</t>
-  </si>
-  <si>
-    <t>21학번</t>
-  </si>
-  <si>
-    <t>볼빨간사춘기</t>
-  </si>
-  <si>
-    <t>김민석 (멜로망스)</t>
-  </si>
-  <si>
-    <t>BE'O (비오)</t>
-  </si>
-  <si>
-    <t>싸이 (PSY)</t>
+    <t>Justin Bieber(저스틴 비버)</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -780,89 +809,40 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-GRAY (그레이)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-보라미유_x000D_
-</t>
-  </si>
-  <si>
-    <t>선우정아(Sunwoojunga)</t>
-  </si>
-  <si>
-    <t>키 (KEY)</t>
-  </si>
-  <si>
-    <t>#안녕</t>
-  </si>
-  <si>
-    <t>YENA (최예나)</t>
-  </si>
-  <si>
-    <t>기리보이</t>
+    <t>츄 (이달의 소녀)</t>
+  </si>
+  <si>
+    <t>이보람 (씨야)</t>
+  </si>
+  <si>
+    <t>21학번</t>
+  </si>
+  <si>
+    <t>Ed Sheeran(에드 시런)</t>
+  </si>
+  <si>
+    <t>케이시</t>
+  </si>
+  <si>
+    <t>다비치</t>
   </si>
   <si>
     <t>이무진</t>
   </si>
   <si>
-    <t>그루비룸 (GroovyRoom)</t>
-  </si>
-  <si>
     <t>STAYC(스테이씨)</t>
   </si>
   <si>
     <t>청하</t>
   </si>
   <si>
-    <t>케이시</t>
-  </si>
-  <si>
-    <t>Ed Sheeran(에드 시런)</t>
-  </si>
-  <si>
     <t>폴킴(Paul Kim)</t>
   </si>
   <si>
-    <t>한동근</t>
-  </si>
-  <si>
-    <t>이석훈</t>
-  </si>
-  <si>
-    <t>Sondia</t>
-  </si>
-  <si>
-    <t>DAY6 (데이식스)</t>
-  </si>
-  <si>
-    <t>브레이브걸스(Brave Girls)</t>
-  </si>
-  <si>
-    <t>박재범</t>
-  </si>
-  <si>
-    <t>Justin Bieber(저스틴 비버)</t>
-  </si>
-  <si>
-    <t>프로미스나인</t>
-  </si>
-  <si>
-    <t>Adele(아델)</t>
-  </si>
-  <si>
-    <t>버즈</t>
-  </si>
-  <si>
-    <t>코요태</t>
-  </si>
-  <si>
-    <t>Lady GaGa(레이디 가가)</t>
-  </si>
-  <si>
-    <t>이창섭</t>
+    <t>JAY B</t>
+  </si>
+  <si>
+    <t>쿠기 (Coogie)</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1270,7 @@
         <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1318,7 +1298,7 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1346,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1360,7 +1340,7 @@
         <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1388,7 +1368,7 @@
         <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1402,7 +1382,7 @@
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1416,7 +1396,7 @@
         <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1472,7 +1452,7 @@
         <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1486,7 +1466,7 @@
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1500,7 +1480,7 @@
         <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1514,7 +1494,7 @@
         <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1528,7 +1508,7 @@
         <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1542,7 +1522,7 @@
         <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1556,7 +1536,7 @@
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1570,7 +1550,7 @@
         <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1584,7 +1564,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1598,7 +1578,7 @@
         <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1612,7 +1592,7 @@
         <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1626,7 +1606,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1640,7 +1620,7 @@
         <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1654,7 +1634,7 @@
         <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1668,7 +1648,7 @@
         <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1682,7 +1662,7 @@
         <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1696,7 +1676,7 @@
         <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1710,7 +1690,7 @@
         <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1724,7 +1704,7 @@
         <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1738,7 +1718,7 @@
         <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1752,7 +1732,7 @@
         <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1766,7 +1746,7 @@
         <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1780,7 +1760,7 @@
         <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1794,7 +1774,7 @@
         <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1808,7 +1788,7 @@
         <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1822,7 +1802,7 @@
         <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1836,7 +1816,7 @@
         <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1850,7 +1830,7 @@
         <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1864,7 +1844,7 @@
         <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1878,7 +1858,7 @@
         <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1892,7 +1872,7 @@
         <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1906,7 +1886,7 @@
         <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1920,7 +1900,7 @@
         <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1934,7 +1914,7 @@
         <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1948,7 +1928,7 @@
         <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1962,7 +1942,7 @@
         <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1976,7 +1956,7 @@
         <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1990,7 +1970,7 @@
         <v>156</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2004,7 +1984,7 @@
         <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2018,7 +1998,7 @@
         <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2032,7 +2012,7 @@
         <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2046,7 +2026,7 @@
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2060,7 +2040,7 @@
         <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2074,7 +2054,7 @@
         <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2088,7 +2068,7 @@
         <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2102,7 +2082,7 @@
         <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2116,7 +2096,7 @@
         <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2130,7 +2110,7 @@
         <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2228,7 +2208,7 @@
         <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2242,7 +2222,7 @@
         <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2256,7 +2236,7 @@
         <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2270,7 +2250,7 @@
         <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2284,7 +2264,7 @@
         <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2298,7 +2278,7 @@
         <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2312,7 +2292,7 @@
         <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2326,7 +2306,7 @@
         <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2340,7 +2320,7 @@
         <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2354,7 +2334,7 @@
         <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2368,7 +2348,7 @@
         <v>183</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2382,7 +2362,7 @@
         <v>184</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2396,7 +2376,7 @@
         <v>185</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2410,7 +2390,7 @@
         <v>186</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2424,7 +2404,7 @@
         <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2438,7 +2418,7 @@
         <v>188</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2452,7 +2432,7 @@
         <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2466,7 +2446,7 @@
         <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2480,7 +2460,7 @@
         <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2494,7 +2474,7 @@
         <v>192</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2508,7 +2488,7 @@
         <v>193</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2522,7 +2502,7 @@
         <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2536,7 +2516,7 @@
         <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2550,7 +2530,7 @@
         <v>196</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2564,7 +2544,7 @@
         <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2578,7 +2558,7 @@
         <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2592,7 +2572,7 @@
         <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2606,7 +2586,7 @@
         <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2620,7 +2600,7 @@
         <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2634,7 +2614,7 @@
         <v>202</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
